--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.785195</v>
+        <v>5.816965666666666</v>
       </c>
       <c r="H2">
-        <v>8.355585000000001</v>
+        <v>17.450897</v>
       </c>
       <c r="I2">
-        <v>0.01643037825317197</v>
+        <v>0.03136298918947451</v>
       </c>
       <c r="J2">
-        <v>0.0169874909743881</v>
+        <v>0.03338421840610672</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.80994433333333</v>
+        <v>16.92841533333333</v>
       </c>
       <c r="N2">
-        <v>44.429833</v>
+        <v>50.785246</v>
       </c>
       <c r="O2">
-        <v>0.02684012165618721</v>
+        <v>0.0242040298661412</v>
       </c>
       <c r="P2">
-        <v>0.02873734127486288</v>
+        <v>0.0261568218313686</v>
       </c>
       <c r="Q2">
-        <v>41.24858290747834</v>
+        <v>98.47201078507354</v>
       </c>
       <c r="R2">
-        <v>371.2372461673051</v>
+        <v>886.2480970656619</v>
       </c>
       <c r="S2">
-        <v>0.0004409933511723085</v>
+        <v>0.0007591107270335047</v>
       </c>
       <c r="T2">
-        <v>0.0004881753255346437</v>
+        <v>0.0008732250528280298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.785195</v>
+        <v>5.816965666666666</v>
       </c>
       <c r="H3">
-        <v>8.355585000000001</v>
+        <v>17.450897</v>
       </c>
       <c r="I3">
-        <v>0.01643037825317197</v>
+        <v>0.03136298918947451</v>
       </c>
       <c r="J3">
-        <v>0.0169874909743881</v>
+        <v>0.03338421840610672</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>571.412498</v>
       </c>
       <c r="O3">
-        <v>0.3451910557977076</v>
+        <v>0.2723327394629209</v>
       </c>
       <c r="P3">
-        <v>0.3695912150682156</v>
+        <v>0.2943046668003394</v>
       </c>
       <c r="Q3">
-        <v>530.4984107890367</v>
+        <v>1107.962294123412</v>
       </c>
       <c r="R3">
-        <v>4774.485697101331</v>
+        <v>9971.660647110704</v>
       </c>
       <c r="S3">
-        <v>0.005671619616368129</v>
+        <v>0.008541168763715568</v>
       </c>
       <c r="T3">
-        <v>0.006278427430184442</v>
+        <v>0.009825131274398996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.785195</v>
+        <v>5.816965666666666</v>
       </c>
       <c r="H4">
-        <v>8.355585000000001</v>
+        <v>17.450897</v>
       </c>
       <c r="I4">
-        <v>0.01643037825317197</v>
+        <v>0.03136298918947451</v>
       </c>
       <c r="J4">
-        <v>0.0169874909743881</v>
+        <v>0.03338421840610672</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.637568</v>
+        <v>110.8005546666667</v>
       </c>
       <c r="N4">
-        <v>394.912704</v>
+        <v>332.401664</v>
       </c>
       <c r="O4">
-        <v>0.2385672937130745</v>
+        <v>0.1584212037293475</v>
       </c>
       <c r="P4">
-        <v>0.2554306505862154</v>
+        <v>0.17120269736802</v>
       </c>
       <c r="Q4">
-        <v>366.63629620576</v>
+        <v>644.523022343623</v>
       </c>
       <c r="R4">
-        <v>3299.72666585184</v>
+        <v>5800.707201092607</v>
       </c>
       <c r="S4">
-        <v>0.003919750874541389</v>
+        <v>0.004968562499947066</v>
       </c>
       <c r="T4">
-        <v>0.004339125871415415</v>
+        <v>0.005715468240648573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.785195</v>
+        <v>5.816965666666666</v>
       </c>
       <c r="H5">
-        <v>8.355585000000001</v>
+        <v>17.450897</v>
       </c>
       <c r="I5">
-        <v>0.01643037825317197</v>
+        <v>0.03136298918947451</v>
       </c>
       <c r="J5">
-        <v>0.0169874909743881</v>
+        <v>0.03338421840610672</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>109.2851675</v>
+        <v>156.6465685</v>
       </c>
       <c r="N5">
-        <v>218.570335</v>
+        <v>313.293137</v>
       </c>
       <c r="O5">
-        <v>0.1980579484228624</v>
+        <v>0.223971242892229</v>
       </c>
       <c r="P5">
-        <v>0.141371909038148</v>
+        <v>0.1613608953572767</v>
       </c>
       <c r="Q5">
-        <v>304.3805020951625</v>
+        <v>911.207710765648</v>
       </c>
       <c r="R5">
-        <v>1826.283012570975</v>
+        <v>5467.246264593889</v>
       </c>
       <c r="S5">
-        <v>0.003254167008634855</v>
+        <v>0.007024407669582147</v>
       </c>
       <c r="T5">
-        <v>0.002401554028817554</v>
+        <v>0.005386907372812257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.785195</v>
+        <v>5.816965666666666</v>
       </c>
       <c r="H6">
-        <v>8.355585000000001</v>
+        <v>17.450897</v>
       </c>
       <c r="I6">
-        <v>0.01643037825317197</v>
+        <v>0.03136298918947451</v>
       </c>
       <c r="J6">
-        <v>0.0169874909743881</v>
+        <v>0.03338421840610672</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>105.580288</v>
+        <v>224.5584563333333</v>
       </c>
       <c r="N6">
-        <v>316.740864</v>
+        <v>673.675369</v>
       </c>
       <c r="O6">
-        <v>0.1913435804101683</v>
+        <v>0.3210707840493613</v>
       </c>
       <c r="P6">
-        <v>0.2048688840325582</v>
+        <v>0.3469749186429952</v>
       </c>
       <c r="Q6">
-        <v>294.06169023616</v>
+        <v>1306.248830650666</v>
       </c>
       <c r="R6">
-        <v>2646.55521212544</v>
+        <v>11756.23947585599</v>
       </c>
       <c r="S6">
-        <v>0.003143847402455291</v>
+        <v>0.01006973952919623</v>
       </c>
       <c r="T6">
-        <v>0.003480208318436045</v>
+        <v>0.01158348646541886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>426.974519</v>
       </c>
       <c r="I7">
-        <v>0.8396004410985183</v>
+        <v>0.7673644067452855</v>
       </c>
       <c r="J7">
-        <v>0.8680691762223948</v>
+        <v>0.8168182183493699</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.80994433333333</v>
+        <v>16.92841533333333</v>
       </c>
       <c r="N7">
-        <v>44.429833</v>
+        <v>50.785246</v>
       </c>
       <c r="O7">
-        <v>0.02684012165618721</v>
+        <v>0.0242040298661412</v>
       </c>
       <c r="P7">
-        <v>0.02873734127486288</v>
+        <v>0.0261568218313686</v>
       </c>
       <c r="Q7">
-        <v>2107.822952713925</v>
+        <v>2409.333998127408</v>
       </c>
       <c r="R7">
-        <v>18970.40657442533</v>
+        <v>21684.00598314668</v>
       </c>
       <c r="S7">
-        <v>0.02253497798167268</v>
+        <v>0.01857331101907661</v>
       </c>
       <c r="T7">
-        <v>0.02494600016729204</v>
+        <v>0.0213653686059804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>426.974519</v>
       </c>
       <c r="I8">
-        <v>0.8396004410985183</v>
+        <v>0.7673644067452855</v>
       </c>
       <c r="J8">
-        <v>0.8680691762223948</v>
+        <v>0.8168182183493699</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>571.412498</v>
       </c>
       <c r="O8">
-        <v>0.3451910557977076</v>
+        <v>0.2723327394629209</v>
       </c>
       <c r="P8">
-        <v>0.3695912150682156</v>
+        <v>0.2943046668003394</v>
       </c>
       <c r="Q8">
         <v>27108.73072045983</v>
@@ -948,10 +948,10 @@
         <v>243978.5764841385</v>
       </c>
       <c r="S8">
-        <v>0.2898225627110186</v>
+        <v>0.2089784510552827</v>
       </c>
       <c r="T8">
-        <v>0.3208307416032998</v>
+        <v>0.2403934135877582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>426.974519</v>
       </c>
       <c r="I9">
-        <v>0.8396004410985183</v>
+        <v>0.7673644067452855</v>
       </c>
       <c r="J9">
-        <v>0.8680691762223948</v>
+        <v>0.8168182183493699</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.637568</v>
+        <v>110.8005546666667</v>
       </c>
       <c r="N9">
-        <v>394.912704</v>
+        <v>332.401664</v>
       </c>
       <c r="O9">
-        <v>0.2385672937130745</v>
+        <v>0.1584212037293475</v>
       </c>
       <c r="P9">
-        <v>0.2554306505862154</v>
+        <v>0.17120269736802</v>
       </c>
       <c r="Q9">
-        <v>18735.29575970993</v>
+        <v>15769.67117791107</v>
       </c>
       <c r="R9">
-        <v>168617.6618373893</v>
+        <v>141927.0406011996</v>
       </c>
       <c r="S9">
-        <v>0.2003012050331771</v>
+        <v>0.1215667930156448</v>
       </c>
       <c r="T9">
-        <v>0.2217314744363264</v>
+        <v>0.1398414822407525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>426.974519</v>
       </c>
       <c r="I10">
-        <v>0.8396004410985183</v>
+        <v>0.7673644067452855</v>
       </c>
       <c r="J10">
-        <v>0.8680691762223948</v>
+        <v>0.8168182183493699</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>109.2851675</v>
+        <v>156.6465685</v>
       </c>
       <c r="N10">
-        <v>218.570335</v>
+        <v>313.293137</v>
       </c>
       <c r="O10">
-        <v>0.1980579484228624</v>
+        <v>0.223971242892229</v>
       </c>
       <c r="P10">
-        <v>0.141371909038148</v>
+        <v>0.1613608953572767</v>
       </c>
       <c r="Q10">
-        <v>15553.99394238231</v>
+        <v>22294.69774609602</v>
       </c>
       <c r="R10">
-        <v>93323.96365429387</v>
+        <v>133768.1864765761</v>
       </c>
       <c r="S10">
-        <v>0.1662895408589029</v>
+        <v>0.1718675599299995</v>
       </c>
       <c r="T10">
-        <v>0.1227205966197324</v>
+        <v>0.1318025190569898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>426.974519</v>
       </c>
       <c r="I11">
-        <v>0.8396004410985183</v>
+        <v>0.7673644067452855</v>
       </c>
       <c r="J11">
-        <v>0.8680691762223948</v>
+        <v>0.8168182183493699</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>105.580288</v>
+        <v>224.5584563333333</v>
       </c>
       <c r="N11">
-        <v>316.740864</v>
+        <v>673.675369</v>
       </c>
       <c r="O11">
-        <v>0.1913435804101683</v>
+        <v>0.3210707840493613</v>
       </c>
       <c r="P11">
-        <v>0.2048688840325582</v>
+        <v>0.3469749186429952</v>
       </c>
       <c r="Q11">
-        <v>15026.69756156049</v>
+        <v>31960.24629343583</v>
       </c>
       <c r="R11">
-        <v>135240.2780540444</v>
+        <v>287642.2166409225</v>
       </c>
       <c r="S11">
-        <v>0.1606521545137471</v>
+        <v>0.2463782917252818</v>
       </c>
       <c r="T11">
-        <v>0.1778403633957441</v>
+        <v>0.2834154348578889</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.234274666666666</v>
+        <v>1.295824333333333</v>
       </c>
       <c r="H12">
-        <v>6.702824</v>
+        <v>3.887473</v>
       </c>
       <c r="I12">
-        <v>0.01318039774407647</v>
+        <v>0.006986619293745993</v>
       </c>
       <c r="J12">
-        <v>0.01362731181633745</v>
+        <v>0.007436881191828873</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.80994433333333</v>
+        <v>16.92841533333333</v>
       </c>
       <c r="N12">
-        <v>44.429833</v>
+        <v>50.785246</v>
       </c>
       <c r="O12">
-        <v>0.02684012165618721</v>
+        <v>0.0242040298661412</v>
       </c>
       <c r="P12">
-        <v>0.02873734127486288</v>
+        <v>0.0261568218313686</v>
       </c>
       <c r="Q12">
-        <v>33.08948343871022</v>
+        <v>21.93625251370644</v>
       </c>
       <c r="R12">
-        <v>297.805350948392</v>
+        <v>197.426272623358</v>
       </c>
       <c r="S12">
-        <v>0.0003537634789279479</v>
+        <v>0.0001691043420491863</v>
       </c>
       <c r="T12">
-        <v>0.0003916127103250607</v>
+        <v>0.000194525176315724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.234274666666666</v>
+        <v>1.295824333333333</v>
       </c>
       <c r="H13">
-        <v>6.702824</v>
+        <v>3.887473</v>
       </c>
       <c r="I13">
-        <v>0.01318039774407647</v>
+        <v>0.006986619293745993</v>
       </c>
       <c r="J13">
-        <v>0.01362731181633745</v>
+        <v>0.007436881191828873</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>571.412498</v>
       </c>
       <c r="O13">
-        <v>0.3451910557977076</v>
+        <v>0.2723327394629209</v>
       </c>
       <c r="P13">
-        <v>0.3695912150682156</v>
+        <v>0.2943046668003394</v>
       </c>
       <c r="Q13">
-        <v>425.5641561660391</v>
+        <v>246.8167397597282</v>
       </c>
       <c r="R13">
-        <v>3830.077405494352</v>
+        <v>2221.350657837554</v>
       </c>
       <c r="S13">
-        <v>0.004549755413111479</v>
+        <v>0.001902685171850344</v>
       </c>
       <c r="T13">
-        <v>0.005036534732313608</v>
+        <v>0.002188708841194908</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.234274666666666</v>
+        <v>1.295824333333333</v>
       </c>
       <c r="H14">
-        <v>6.702824</v>
+        <v>3.887473</v>
       </c>
       <c r="I14">
-        <v>0.01318039774407647</v>
+        <v>0.006986619293745993</v>
       </c>
       <c r="J14">
-        <v>0.01362731181633745</v>
+        <v>0.007436881191828873</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>131.637568</v>
+        <v>110.8005546666667</v>
       </c>
       <c r="N14">
-        <v>394.912704</v>
+        <v>332.401664</v>
       </c>
       <c r="O14">
-        <v>0.2385672937130745</v>
+        <v>0.1584212037293475</v>
       </c>
       <c r="P14">
-        <v>0.2554306505862154</v>
+        <v>0.17120269736802</v>
       </c>
       <c r="Q14">
-        <v>294.1144833640106</v>
+        <v>143.5780548838969</v>
       </c>
       <c r="R14">
-        <v>2647.030350276096</v>
+        <v>1292.202493955072</v>
       </c>
       <c r="S14">
-        <v>0.003144411819866234</v>
+        <v>0.001106828638513924</v>
       </c>
       <c r="T14">
-        <v>0.003480833122988295</v>
+        <v>0.001273214120046599</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.234274666666666</v>
+        <v>1.295824333333333</v>
       </c>
       <c r="H15">
-        <v>6.702824</v>
+        <v>3.887473</v>
       </c>
       <c r="I15">
-        <v>0.01318039774407647</v>
+        <v>0.006986619293745993</v>
       </c>
       <c r="J15">
-        <v>0.01362731181633745</v>
+        <v>0.007436881191828873</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>109.2851675</v>
+        <v>156.6465685</v>
       </c>
       <c r="N15">
-        <v>218.570335</v>
+        <v>313.293137</v>
       </c>
       <c r="O15">
-        <v>0.1980579484228624</v>
+        <v>0.223971242892229</v>
       </c>
       <c r="P15">
-        <v>0.141371909038148</v>
+        <v>0.1613608953572767</v>
       </c>
       <c r="Q15">
-        <v>244.1730811876733</v>
+        <v>202.9864351954668</v>
       </c>
       <c r="R15">
-        <v>1465.03848712604</v>
+        <v>1217.918611172801</v>
       </c>
       <c r="S15">
-        <v>0.002610482536589109</v>
+        <v>0.001564801806835117</v>
       </c>
       <c r="T15">
-        <v>0.001926519086533736</v>
+        <v>0.001200021807779198</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.234274666666666</v>
+        <v>1.295824333333333</v>
       </c>
       <c r="H16">
-        <v>6.702824</v>
+        <v>3.887473</v>
       </c>
       <c r="I16">
-        <v>0.01318039774407647</v>
+        <v>0.006986619293745993</v>
       </c>
       <c r="J16">
-        <v>0.01362731181633745</v>
+        <v>0.007436881191828873</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>105.580288</v>
+        <v>224.5584563333333</v>
       </c>
       <c r="N16">
-        <v>316.740864</v>
+        <v>673.675369</v>
       </c>
       <c r="O16">
-        <v>0.1913435804101683</v>
+        <v>0.3210707840493613</v>
       </c>
       <c r="P16">
-        <v>0.2048688840325582</v>
+        <v>0.3469749186429952</v>
       </c>
       <c r="Q16">
-        <v>235.8953627777706</v>
+        <v>290.9883119725041</v>
       </c>
       <c r="R16">
-        <v>2123.058264999936</v>
+        <v>2618.894807752537</v>
       </c>
       <c r="S16">
-        <v>0.002521984495581696</v>
+        <v>0.002243199334497421</v>
       </c>
       <c r="T16">
-        <v>0.002791812164176746</v>
+        <v>0.002580411246492445</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.677968</v>
+        <v>33.687956</v>
       </c>
       <c r="H17">
-        <v>33.355936</v>
+        <v>67.375912</v>
       </c>
       <c r="I17">
-        <v>0.09838640480623369</v>
+        <v>0.181633356699686</v>
       </c>
       <c r="J17">
-        <v>0.06781495990313867</v>
+        <v>0.1288926386717328</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.80994433333333</v>
+        <v>16.92841533333333</v>
       </c>
       <c r="N17">
-        <v>44.429833</v>
+        <v>50.785246</v>
       </c>
       <c r="O17">
-        <v>0.02684012165618721</v>
+        <v>0.0242040298661412</v>
       </c>
       <c r="P17">
-        <v>0.02873734127486288</v>
+        <v>0.0261568218313686</v>
       </c>
       <c r="Q17">
-        <v>246.9997776731147</v>
+        <v>570.2837108990586</v>
       </c>
       <c r="R17">
-        <v>1481.998666038688</v>
+        <v>3421.702265394352</v>
       </c>
       <c r="S17">
-        <v>0.002640703074314194</v>
+        <v>0.004396259190246677</v>
       </c>
       <c r="T17">
-        <v>0.001948821646277638</v>
+        <v>0.003371421785111487</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.677968</v>
+        <v>33.687956</v>
       </c>
       <c r="H18">
-        <v>33.355936</v>
+        <v>67.375912</v>
       </c>
       <c r="I18">
-        <v>0.09838640480623369</v>
+        <v>0.181633356699686</v>
       </c>
       <c r="J18">
-        <v>0.06781495990313867</v>
+        <v>0.1288926386717328</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>571.412498</v>
       </c>
       <c r="O18">
-        <v>0.3451910557977076</v>
+        <v>0.2723327394629209</v>
       </c>
       <c r="P18">
-        <v>0.3695912150682156</v>
+        <v>0.2943046668003394</v>
       </c>
       <c r="Q18">
-        <v>3176.666452148021</v>
+        <v>6416.57303015803</v>
       </c>
       <c r="R18">
-        <v>19059.99871288813</v>
+        <v>38499.43818094818</v>
       </c>
       <c r="S18">
-        <v>0.03396210695120446</v>
+        <v>0.04946470960787136</v>
       </c>
       <c r="T18">
-        <v>0.02506381343040334</v>
+        <v>0.03793370507730087</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.677968</v>
+        <v>33.687956</v>
       </c>
       <c r="H19">
-        <v>33.355936</v>
+        <v>67.375912</v>
       </c>
       <c r="I19">
-        <v>0.09838640480623369</v>
+        <v>0.181633356699686</v>
       </c>
       <c r="J19">
-        <v>0.06781495990313867</v>
+        <v>0.1288926386717328</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>131.637568</v>
+        <v>110.8005546666667</v>
       </c>
       <c r="N19">
-        <v>394.912704</v>
+        <v>332.401664</v>
       </c>
       <c r="O19">
-        <v>0.2385672937130745</v>
+        <v>0.1584212037293475</v>
       </c>
       <c r="P19">
-        <v>0.2554306505862154</v>
+        <v>0.17120269736802</v>
       </c>
       <c r="Q19">
-        <v>2195.447146701824</v>
+        <v>3732.644210386261</v>
       </c>
       <c r="R19">
-        <v>13172.68288021094</v>
+        <v>22395.86526231757</v>
       </c>
       <c r="S19">
-        <v>0.02347177833278219</v>
+        <v>0.0287745750057662</v>
       </c>
       <c r="T19">
-        <v>0.01732201932753683</v>
+        <v>0.02206676741148223</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.677968</v>
+        <v>33.687956</v>
       </c>
       <c r="H20">
-        <v>33.355936</v>
+        <v>67.375912</v>
       </c>
       <c r="I20">
-        <v>0.09838640480623369</v>
+        <v>0.181633356699686</v>
       </c>
       <c r="J20">
-        <v>0.06781495990313867</v>
+        <v>0.1288926386717328</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>109.2851675</v>
+        <v>156.6465685</v>
       </c>
       <c r="N20">
-        <v>218.570335</v>
+        <v>313.293137</v>
       </c>
       <c r="O20">
-        <v>0.1980579484228624</v>
+        <v>0.223971242892229</v>
       </c>
       <c r="P20">
-        <v>0.141371909038148</v>
+        <v>0.1613608953572767</v>
       </c>
       <c r="Q20">
-        <v>1822.65452643964</v>
+        <v>5277.102707178986</v>
       </c>
       <c r="R20">
-        <v>7290.61810575856</v>
+        <v>21108.41082871594</v>
       </c>
       <c r="S20">
-        <v>0.0194862094886239</v>
+        <v>0.04068064865071623</v>
       </c>
       <c r="T20">
-        <v>0.009587130342852171</v>
+        <v>0.02079823158103276</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.677968</v>
+        <v>33.687956</v>
       </c>
       <c r="H21">
-        <v>33.355936</v>
+        <v>67.375912</v>
       </c>
       <c r="I21">
-        <v>0.09838640480623369</v>
+        <v>0.181633356699686</v>
       </c>
       <c r="J21">
-        <v>0.06781495990313867</v>
+        <v>0.1288926386717328</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>105.580288</v>
+        <v>224.5584563333333</v>
       </c>
       <c r="N21">
-        <v>316.740864</v>
+        <v>673.675369</v>
       </c>
       <c r="O21">
-        <v>0.1913435804101683</v>
+        <v>0.3210707840493613</v>
       </c>
       <c r="P21">
-        <v>0.2048688840325582</v>
+        <v>0.3469749186429952</v>
       </c>
       <c r="Q21">
-        <v>1760.864664694784</v>
+        <v>7564.915396385255</v>
       </c>
       <c r="R21">
-        <v>10565.1879881687</v>
+        <v>45389.49237831153</v>
       </c>
       <c r="S21">
-        <v>0.01882560695930894</v>
+        <v>0.05831716424508549</v>
       </c>
       <c r="T21">
-        <v>0.0138931751560687</v>
+        <v>0.04472251281680548</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.492688</v>
+        <v>2.346712</v>
       </c>
       <c r="H22">
-        <v>16.478064</v>
+        <v>7.040136</v>
       </c>
       <c r="I22">
-        <v>0.03240237809799983</v>
+        <v>0.01265262807180802</v>
       </c>
       <c r="J22">
-        <v>0.03350106108374092</v>
+        <v>0.01346804338096171</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.80994433333333</v>
+        <v>16.92841533333333</v>
       </c>
       <c r="N22">
-        <v>44.429833</v>
+        <v>50.785246</v>
       </c>
       <c r="O22">
-        <v>0.02684012165618721</v>
+        <v>0.0242040298661412</v>
       </c>
       <c r="P22">
-        <v>0.02873734127486288</v>
+        <v>0.0261568218313686</v>
       </c>
       <c r="Q22">
-        <v>81.34640352036801</v>
+        <v>39.72611540371734</v>
       </c>
       <c r="R22">
-        <v>732.1176316833121</v>
+        <v>357.535038633456</v>
       </c>
       <c r="S22">
-        <v>0.0008696837701000916</v>
+        <v>0.0003062445877352179</v>
       </c>
       <c r="T22">
-        <v>0.0009627314254334904</v>
+        <v>0.0003522812111329587</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.492688</v>
+        <v>2.346712</v>
       </c>
       <c r="H23">
-        <v>16.478064</v>
+        <v>7.040136</v>
       </c>
       <c r="I23">
-        <v>0.03240237809799983</v>
+        <v>0.01265262807180802</v>
       </c>
       <c r="J23">
-        <v>0.03350106108374092</v>
+        <v>0.01346804338096171</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>571.412498</v>
       </c>
       <c r="O23">
-        <v>0.3451910557977076</v>
+        <v>0.2723327394629209</v>
       </c>
       <c r="P23">
-        <v>0.3695912150682156</v>
+        <v>0.2943046668003394</v>
       </c>
       <c r="Q23">
-        <v>1046.196856938208</v>
+        <v>446.9801886688587</v>
       </c>
       <c r="R23">
-        <v>9415.771712443873</v>
+        <v>4022.821698019729</v>
       </c>
       <c r="S23">
-        <v>0.01118501110600508</v>
+        <v>0.003445724864200933</v>
       </c>
       <c r="T23">
-        <v>0.01238169787201432</v>
+        <v>0.003963708019686453</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.492688</v>
+        <v>2.346712</v>
       </c>
       <c r="H24">
-        <v>16.478064</v>
+        <v>7.040136</v>
       </c>
       <c r="I24">
-        <v>0.03240237809799983</v>
+        <v>0.01265262807180802</v>
       </c>
       <c r="J24">
-        <v>0.03350106108374092</v>
+        <v>0.01346804338096171</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>131.637568</v>
+        <v>110.8005546666667</v>
       </c>
       <c r="N24">
-        <v>394.912704</v>
+        <v>332.401664</v>
       </c>
       <c r="O24">
-        <v>0.2385672937130745</v>
+        <v>0.1584212037293475</v>
       </c>
       <c r="P24">
-        <v>0.2554306505862154</v>
+        <v>0.17120269736802</v>
       </c>
       <c r="Q24">
-        <v>723.0440901027839</v>
+        <v>260.0169912429226</v>
       </c>
       <c r="R24">
-        <v>6507.396810925055</v>
+        <v>2340.152921186304</v>
       </c>
       <c r="S24">
-        <v>0.007730147652707618</v>
+        <v>0.00200444456947556</v>
       </c>
       <c r="T24">
-        <v>0.008557197827948488</v>
+        <v>0.002305765355090153</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.492688</v>
+        <v>2.346712</v>
       </c>
       <c r="H25">
-        <v>16.478064</v>
+        <v>7.040136</v>
       </c>
       <c r="I25">
-        <v>0.03240237809799983</v>
+        <v>0.01265262807180802</v>
       </c>
       <c r="J25">
-        <v>0.03350106108374092</v>
+        <v>0.01346804338096171</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>109.2851675</v>
+        <v>156.6465685</v>
       </c>
       <c r="N25">
-        <v>218.570335</v>
+        <v>313.293137</v>
       </c>
       <c r="O25">
-        <v>0.1980579484228624</v>
+        <v>0.223971242892229</v>
       </c>
       <c r="P25">
-        <v>0.141371909038148</v>
+        <v>0.1613608953572767</v>
       </c>
       <c r="Q25">
-        <v>600.26932810524</v>
+        <v>367.604382057772</v>
       </c>
       <c r="R25">
-        <v>3601.61596863144</v>
+        <v>2205.626292346632</v>
       </c>
       <c r="S25">
-        <v>0.006417548530111738</v>
+        <v>0.002833824835095949</v>
       </c>
       <c r="T25">
-        <v>0.004736108960212061</v>
+        <v>0.002173215538662625</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.492688</v>
+        <v>2.346712</v>
       </c>
       <c r="H26">
-        <v>16.478064</v>
+        <v>7.040136</v>
       </c>
       <c r="I26">
-        <v>0.03240237809799983</v>
+        <v>0.01265262807180802</v>
       </c>
       <c r="J26">
-        <v>0.03350106108374092</v>
+        <v>0.01346804338096171</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>105.580288</v>
+        <v>224.5584563333333</v>
       </c>
       <c r="N26">
-        <v>316.740864</v>
+        <v>673.675369</v>
       </c>
       <c r="O26">
-        <v>0.1913435804101683</v>
+        <v>0.3210707840493613</v>
       </c>
       <c r="P26">
-        <v>0.2048688840325582</v>
+        <v>0.3469749186429952</v>
       </c>
       <c r="Q26">
-        <v>579.9195809341441</v>
+        <v>526.9740241789094</v>
       </c>
       <c r="R26">
-        <v>5219.276228407296</v>
+        <v>4742.766217610185</v>
       </c>
       <c r="S26">
-        <v>0.006199987039075306</v>
+        <v>0.00406238921530036</v>
       </c>
       <c r="T26">
-        <v>0.006863324998132568</v>
+        <v>0.00467307325638952</v>
       </c>
     </row>
   </sheetData>
